--- a/StructureDefinition-profile-ObservationDefinition.xlsx
+++ b/StructureDefinition-profile-ObservationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7528093-06:00</t>
+    <t>2026-02-09T22:05:43.2429371-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,33 +424,570 @@
     <t>ObservationDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.url|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this ObservationDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this ObservationDefinition is (or will be) published. The URL SHOULD include the major version of the ObservationDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.url` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the ObservationDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the ObservationDefinition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions are orderable.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.version` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.versionAlgorithm[x]` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the ObservationDefinition. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.name` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.title` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.status|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The current state of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.status` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.experimental|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this ObservationDefinition is authored for testing purposes (or education/evaluation/marketing), and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.experimental` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.date|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.date from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date (and optionally time) when the ObservationDefinition was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ObservationDefinition changes.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.date` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:publisher</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.publisher|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.publisher from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the ObservationDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.publisher` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.contact` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the ObservationDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.description` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:useContext</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.useContext|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.useContext from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate ObservationDefinition instances.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.useContext` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.jurisdiction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.jurisdiction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.jurisdiction` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explains why this ObservationDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.purpose` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the ObservationDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.copyright` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.copyrightLabel` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.approvalDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.approvalDate` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.lastReviewDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.lastReviewDate` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.effectivePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the ObservationDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.effectivePeriod` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:derivedFromUri</t>
+  </si>
+  <si>
+    <t>derivedFromUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.derivedFromUri|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.derivedFromUri from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.derivedFromUri` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.subject|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code that describes the intended kind of subject of Observation instances conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `CodeableConcept`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Resource)`:0..1).
+Element `ObservationDefinition.subject` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:performerType</t>
+  </si>
+  <si>
+    <t>performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.performerType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.performerType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.performerType` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.bodySite|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The site on the subject's body where the  observation is to be made.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.bodySite` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:component</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.component from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations, expressed as separate code value pairs.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.component` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:derivedFromCanonical</t>
+  </si>
+  <si>
+    <t>derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.derivedFromCanonical from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.derivedFromCanonical` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:specimen</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.specimen from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ObservationDefinition.specimen` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/DeviceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ObservationDefinition.device` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:hasMember</t>
+  </si>
+  <si>
+    <t>hasMember</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.hasMember from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.hasMember` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ObservationDefinition.hasMember` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -458,6 +995,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -667,6 +1207,9 @@
     <t>ObservationDefinition.quantitativeDetails.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -934,30 +1477,24 @@
     <t>ObservationDefinition.validCodedValueSet.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue.validCodedValueSet|0.0.1-snapshot-3}
-</t>
+    <t>ObservationDefinition.validCodedValueSet.extension:validCodedValueSet</t>
+  </si>
+  <si>
+    <t>validCodedValueSet</t>
   </si>
   <si>
     <t>Cross-version extension for ObservationDefinition.qualifiedValue.validCodedValueSet from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The set of valid coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ValueSet in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`.</t>
   </si>
   <si>
     <t>ObservationDefinition.validCodedValueSet.reference</t>
@@ -1055,14 +1592,18 @@
     <t>ObservationDefinition.normalCodedValueSet.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue.normalCodedValueSet|0.0.1-snapshot-3}
-</t>
+    <t>ObservationDefinition.normalCodedValueSet.extension:normalCodedValueSet</t>
+  </si>
+  <si>
+    <t>normalCodedValueSet</t>
   </si>
   <si>
     <t>Cross-version extension for ObservationDefinition.qualifiedValue.normalCodedValueSet from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The set of normal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`.</t>
   </si>
   <si>
     <t>ObservationDefinition.normalCodedValueSet.reference</t>
@@ -1095,14 +1636,18 @@
     <t>ObservationDefinition.abnormalCodedValueSet.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue.abnormalCodedValueSet|0.0.1-snapshot-3}
-</t>
+    <t>ObservationDefinition.abnormalCodedValueSet.extension:abnormalCodedValueSet</t>
+  </si>
+  <si>
+    <t>abnormalCodedValueSet</t>
   </si>
   <si>
     <t>Cross-version extension for ObservationDefinition.qualifiedValue.abnormalCodedValueSet from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The set of abnormal coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`.</t>
   </si>
   <si>
     <t>ObservationDefinition.abnormalCodedValueSet.reference</t>
@@ -1135,14 +1680,18 @@
     <t>ObservationDefinition.criticalCodedValueSet.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue.criticalCodedValueSet|0.0.1-snapshot-3}
-</t>
+    <t>ObservationDefinition.criticalCodedValueSet.extension:criticalCodedValueSet</t>
+  </si>
+  <si>
+    <t>criticalCodedValueSet</t>
   </si>
   <si>
     <t>Cross-version extension for ObservationDefinition.qualifiedValue.criticalCodedValueSet from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The set of critical coded results for qualitative observations  that match the criteria of this set of qualified values.</t>
+    <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`.</t>
   </si>
   <si>
     <t>ObservationDefinition.criticalCodedValueSet.reference</t>
@@ -1461,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1470,9 +2019,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.91796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.8828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1480,7 +2029,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.3125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2413,11 +2962,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2432,17 +2981,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2479,16 +3026,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2509,7 +3054,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2520,43 +3065,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2604,7 +3149,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2613,7 +3158,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2622,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2630,21 +3175,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2653,23 +3200,21 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2693,13 +3238,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2717,7 +3262,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2726,35 +3271,37 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -2766,21 +3313,21 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2804,13 +3351,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2828,38 +3375,40 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2868,7 +3417,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2877,18 +3426,20 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2937,7 +3488,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2946,10 +3497,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2963,12 +3514,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2977,7 +3530,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2989,15 +3542,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3010,7 +3565,7 @@
         <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>76</v>
@@ -3022,13 +3577,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3046,7 +3601,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3055,13 +3610,13 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3072,18 +3627,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3092,22 +3649,22 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3121,7 +3678,7 @@
         <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>76</v>
@@ -3157,19 +3714,19 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3183,12 +3740,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3209,20 +3768,18 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3246,13 +3803,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3270,25 +3827,25 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3296,12 +3853,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3322,15 +3881,17 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3379,22 +3940,22 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3405,12 +3966,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3431,15 +3994,17 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3488,22 +4053,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3514,12 +4079,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3528,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3540,15 +4107,17 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3597,25 +4166,25 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3623,21 +4192,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3649,16 +4220,16 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3708,7 +4279,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3717,7 +4288,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>138</v>
@@ -3726,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3734,14 +4305,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3754,26 +4327,24 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3821,7 +4392,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3830,7 +4401,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>138</v>
@@ -3839,7 +4410,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3847,12 +4418,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3861,7 +4434,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3873,15 +4446,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3906,13 +4481,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3930,22 +4505,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3956,12 +4531,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3982,15 +4559,17 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4015,13 +4594,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4039,22 +4618,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4065,12 +4644,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4091,15 +4672,17 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4148,22 +4731,22 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4174,12 +4757,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4200,15 +4785,17 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4257,22 +4844,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4283,12 +4870,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4297,7 +4886,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4309,15 +4898,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4366,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4375,13 +4966,13 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4392,12 +4983,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4418,15 +5011,17 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4475,25 +5070,25 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4501,21 +5096,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4527,16 +5124,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4586,7 +5183,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4595,7 +5192,7 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>138</v>
@@ -4604,7 +5201,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4612,14 +5209,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4632,26 +5231,24 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4699,7 +5296,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4708,7 +5305,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>138</v>
@@ -4717,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4725,12 +5322,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4739,7 +5338,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4751,15 +5350,17 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4772,7 +5373,7 @@
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -4784,13 +5385,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4808,22 +5409,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4834,12 +5435,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4860,18 +5463,18 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4919,22 +5522,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4945,12 +5548,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4971,15 +5576,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5004,13 +5611,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5028,22 +5635,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5054,12 +5661,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5080,16 +5689,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5115,13 +5724,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5139,7 +5748,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5148,13 +5757,13 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5165,12 +5774,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5179,7 +5790,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5191,15 +5802,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5212,7 +5825,7 @@
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>76</v>
@@ -5224,13 +5837,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5248,22 +5861,22 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5274,12 +5887,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5288,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5300,16 +5915,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5359,22 +5974,22 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5385,12 +6000,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5399,7 +6016,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5411,15 +6028,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5468,22 +6087,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5494,12 +6113,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5508,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5520,15 +6141,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5577,22 +6200,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5603,42 +6226,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5686,25 +6313,25 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5712,21 +6339,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5735,19 +6362,23 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5771,13 +6402,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5795,47 +6426,47 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5844,19 +6475,21 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5880,60 +6513,60 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5944,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5953,16 +6586,16 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6013,7 +6646,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6025,7 +6658,7 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6039,10 +6672,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6053,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6062,20 +6695,18 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6088,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -6100,13 +6731,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6124,25 +6755,25 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6150,10 +6781,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6173,19 +6804,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6199,7 +6830,7 @@
         <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>76</v>
@@ -6211,13 +6842,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6235,7 +6866,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6253,7 +6884,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6261,10 +6892,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6284,21 +6915,23 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6322,13 +6955,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6346,7 +6979,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6361,10 +6994,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6372,10 +7005,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6395,20 +7028,18 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6457,7 +7088,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6472,10 +7103,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6483,10 +7114,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6509,13 +7140,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6566,7 +7197,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6581,7 +7212,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6592,10 +7223,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6618,13 +7249,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6675,7 +7306,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6693,7 +7324,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6701,18 +7332,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -6727,15 +7358,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6772,19 +7405,19 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6802,7 +7435,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6810,42 +7443,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6893,7 +7530,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6911,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -6919,10 +7556,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6942,20 +7579,18 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6980,13 +7615,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7004,7 +7639,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7013,16 +7648,16 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7030,10 +7665,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7053,20 +7688,18 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7091,13 +7724,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7115,7 +7748,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7130,10 +7763,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7141,10 +7774,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7164,20 +7797,18 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>167</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7226,7 +7857,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7241,10 +7872,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7252,10 +7883,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7275,20 +7906,18 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7337,7 +7966,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7352,10 +7981,10 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7363,10 +7992,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7377,7 +8006,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7389,13 +8018,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7446,13 +8075,13 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -7461,7 +8090,7 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7472,10 +8101,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7498,13 +8127,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>204</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7555,7 +8184,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7573,7 +8202,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7581,18 +8210,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -7607,15 +8236,17 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7652,19 +8283,19 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7682,7 +8313,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7690,42 +8321,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7773,7 +8408,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7791,7 +8426,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7799,10 +8434,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7822,20 +8457,18 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7848,7 +8481,7 @@
         <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>76</v>
@@ -7860,13 +8493,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -7884,7 +8517,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7893,16 +8526,16 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -7910,10 +8543,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7933,21 +8566,21 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -7971,13 +8604,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -7995,7 +8628,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8010,10 +8643,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8021,10 +8654,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8044,20 +8677,18 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8082,13 +8713,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8106,7 +8737,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8121,10 +8752,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8132,10 +8763,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8146,7 +8777,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8155,19 +8786,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>326</v>
+        <v>435</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8193,13 +8824,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8217,13 +8848,13 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
@@ -8232,10 +8863,10 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8243,10 +8874,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8269,13 +8900,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8290,7 +8921,7 @@
         <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>76</v>
@@ -8302,13 +8933,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8326,7 +8957,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8341,7 +8972,7 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8352,10 +8983,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8378,15 +9009,17 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>194</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8435,7 +9068,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8447,13 +9080,13 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8461,10 +9094,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8472,11 +9105,11 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8487,13 +9120,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8532,34 +9165,34 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8570,10 +9203,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8596,13 +9229,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>361</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8653,22 +9286,22 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>210</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8679,10 +9312,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8702,20 +9335,18 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>194</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8764,7 +9395,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>308</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8773,16 +9404,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -8790,10 +9421,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8813,20 +9444,18 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>363</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8851,13 +9480,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -8875,7 +9504,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8887,13 +9516,13 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>130</v>
+        <v>376</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -8901,10 +9530,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>365</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>365</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8915,7 +9544,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -8924,20 +9553,18 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -8974,37 +9601,37 @@
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9012,12 +9639,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9035,19 +9664,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>324</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>325</v>
+        <v>470</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9097,27 +9726,3123 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ObservationDefinition.xlsx
+++ b/StructureDefinition-profile-ObservationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2429371-06:00</t>
+    <t>2026-02-17T14:42:26.8648741-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -464,7 +464,7 @@
     <t>An absolute URL that is used to identify this ObservationDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this ObservationDefinition is (or will be) published. The URL SHOULD include the major version of the ObservationDefinition. For more information see Technical and Business Versions.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.url` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.url` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -487,7 +487,7 @@
     <t>The identifier that is used to identify this version of the ObservationDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the ObservationDefinition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions are orderable.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.version` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.version` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:versionAlgorithm</t>
@@ -506,7 +506,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.versionAlgorithm[x]` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.versionAlgorithm[x]` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:name</t>
@@ -525,7 +525,7 @@
     <t>A natural language name identifying the ObservationDefinition. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.name` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.name` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:title</t>
@@ -544,7 +544,7 @@
     <t>A short, descriptive, user-friendly title for the ObservationDefinition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.title` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.title` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:status</t>
@@ -563,7 +563,7 @@
     <t>The current state of the ObservationDefinition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.status` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.status` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:experimental</t>
@@ -582,7 +582,7 @@
     <t>A flag to indicate that this ObservationDefinition is authored for testing purposes (or education/evaluation/marketing), and is not intended to be used for genuine usage.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.experimental` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.experimental` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:date</t>
@@ -601,7 +601,7 @@
     <t>The date (and optionally time) when the ObservationDefinition was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ObservationDefinition changes.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.date` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.date` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:publisher</t>
@@ -620,7 +620,7 @@
     <t>Helps establish the "authority/credibility" of the ObservationDefinition. May also allow for contact.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.publisher` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.publisher` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:contact</t>
@@ -639,7 +639,7 @@
     <t>Contact details to assist a user in finding and communicating with the publisher.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.contact` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.contact` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:description</t>
@@ -658,7 +658,7 @@
     <t>A free text natural language description of the ObservationDefinition from the consumer's perspective.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.description` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.description` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:useContext</t>
@@ -677,7 +677,7 @@
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate ObservationDefinition instances.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.useContext` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.useContext` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:jurisdiction</t>
@@ -696,7 +696,7 @@
     <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.jurisdiction` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.jurisdiction` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:purpose</t>
@@ -715,7 +715,7 @@
     <t>Explains why this ObservationDefinition is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.purpose` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.purpose` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:copyright</t>
@@ -734,7 +734,7 @@
     <t>Copyright statement relating to the ObservationDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the ObservationDefinition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.copyright` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.copyright` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:copyrightLabel</t>
@@ -753,7 +753,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.copyrightLabel` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.copyrightLabel` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:approvalDate</t>
@@ -772,7 +772,7 @@
     <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.approvalDate` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.approvalDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:lastReviewDate</t>
@@ -791,7 +791,7 @@
     <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.lastReviewDate` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.lastReviewDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:effectivePeriod</t>
@@ -810,7 +810,7 @@
     <t>The period during which the ObservationDefinition content was or is planned to be effective.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.effectivePeriod` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.effectivePeriod` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:derivedFromUri</t>
@@ -829,7 +829,7 @@
     <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.derivedFromUri` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.derivedFromUri` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:subject</t>
@@ -849,7 +849,7 @@
   </si>
   <si>
     <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `CodeableConcept`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Resource)`:0..1).
-Element `ObservationDefinition.subject` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.subject` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:performerType</t>
@@ -868,7 +868,7 @@
     <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.performerType` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.performerType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:bodySite</t>
@@ -887,7 +887,7 @@
     <t>The site on the subject's body where the  observation is to be made.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.bodySite` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.bodySite` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:component</t>
@@ -906,7 +906,7 @@
     <t>Some observations have multiple component observations, expressed as separate code value pairs.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.component` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.component` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:derivedFromCanonical</t>
@@ -926,7 +926,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.derivedFromCanonical` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.derivedFromCanonical` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:specimen</t>
@@ -946,7 +946,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.specimen` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.specimen` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:device</t>
@@ -962,7 +962,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.device` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.device` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.extension:hasMember</t>
@@ -978,7 +978,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.hasMember` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.hasMember` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.hasMember` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.modifierExtension</t>
@@ -1316,6 +1316,25 @@
     <t>ObservationDefinition.qualifiedInterval.extension</t>
   </si>
   <si>
+    <t>ObservationDefinition.qualifiedInterval.extension:qualifiedValue</t>
+  </si>
+  <si>
+    <t>qualifiedValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.qualifiedValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A set of qualified values associated with a context and a set of conditions -  provides a range for quantitative and ordinal observations and a collection of value sets for qualitative observations.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.qualifiedValue` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>ObservationDefinition.qualifiedInterval.modifierExtension</t>
   </si>
   <si>
@@ -1471,109 +1490,6 @@
     <t>OM3-3</t>
   </si>
   <si>
-    <t>ObservationDefinition.validCodedValueSet.id</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.extension:validCodedValueSet</t>
-  </si>
-  <si>
-    <t>validCodedValueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.qualifiedValue.validCodedValueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ValueSet in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.validCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.validCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.validCodedValueSet`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.validCodedValueSet.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>ObservationDefinition.normalCodedValueSet</t>
   </si>
   <si>
@@ -1586,38 +1502,6 @@
     <t>OM3-4</t>
   </si>
   <si>
-    <t>ObservationDefinition.normalCodedValueSet.id</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.extension</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.extension:normalCodedValueSet</t>
-  </si>
-  <si>
-    <t>normalCodedValueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.qualifiedValue.normalCodedValueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.normalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.normalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.normalCodedValueSet`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.reference</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.type</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.identifier</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.normalCodedValueSet.display</t>
-  </si>
-  <si>
     <t>ObservationDefinition.abnormalCodedValueSet</t>
   </si>
   <si>
@@ -1630,38 +1514,6 @@
     <t>OM3-5</t>
   </si>
   <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.id</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.extension</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.extension:abnormalCodedValueSet</t>
-  </si>
-  <si>
-    <t>abnormalCodedValueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.qualifiedValue.abnormalCodedValueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.abnormalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.abnormalCodedValueSet`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.reference</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.type</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.identifier</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.abnormalCodedValueSet.display</t>
-  </si>
-  <si>
     <t>ObservationDefinition.criticalCodedValueSet</t>
   </si>
   <si>
@@ -1672,38 +1524,6 @@
   </si>
   <si>
     <t>OM3-6</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.id</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.extension</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.extension:criticalCodedValueSet</t>
-  </si>
-  <si>
-    <t>criticalCodedValueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.qualifiedValue.criticalCodedValueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is part of an existing definition because parent element `ObservationDefinition.qualifiedValue` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.qualifiedValue.criticalCodedValueSet` is mapped to FHIR R4 element `ObservationDefinition.criticalCodedValueSet`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.reference</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.type</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.identifier</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.criticalCodedValueSet.display</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2019,9 +1839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2043,11 +1863,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="48.7578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -8217,7 +8037,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8239,14 +8059,12 @@
         <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8283,16 +8101,14 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>380</v>
@@ -8313,7 +8129,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8324,11 +8140,13 @@
         <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8341,26 +8159,24 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8408,7 +8224,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8417,7 +8233,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>138</v>
@@ -8426,7 +8242,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8434,42 +8250,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8481,7 +8301,7 @@
         <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>76</v>
@@ -8493,13 +8313,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8517,25 +8337,25 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8543,10 +8363,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8569,18 +8389,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8592,7 +8410,7 @@
         <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>76</v>
@@ -8604,13 +8422,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8628,7 +8446,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8643,7 +8461,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8654,10 +8472,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8680,16 +8498,18 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8713,13 +8533,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8737,7 +8557,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8752,7 +8572,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8777,7 +8597,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8797,9 +8617,7 @@
       <c r="M61" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8824,13 +8642,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8854,7 +8672,7 @@
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
@@ -8863,7 +8681,7 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8874,10 +8692,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8888,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8900,15 +8718,17 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8921,26 +8741,26 @@
         <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8957,13 +8777,13 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
@@ -8972,7 +8792,7 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8983,10 +8803,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9009,17 +8829,15 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>449</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9032,7 +8850,7 @@
         <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>76</v>
@@ -9044,13 +8862,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9068,7 +8886,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9083,7 +8901,7 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9094,10 +8912,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9120,15 +8938,17 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9177,7 +8997,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9192,7 +9012,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9203,10 +9023,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9229,13 +9049,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9286,7 +9106,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9301,7 +9121,7 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9312,10 +9132,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9338,13 +9158,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9395,7 +9215,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9410,7 +9230,7 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9421,10 +9241,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9447,13 +9267,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9504,7 +9324,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9516,13 +9336,13 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9530,10 +9350,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9544,7 +9364,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9556,13 +9376,13 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>133</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>134</v>
+        <v>472</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9601,34 +9421,34 @@
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>466</v>
+        <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9639,14 +9459,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9667,17 +9485,15 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9726,22 +9542,22 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>380</v>
+        <v>474</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>477</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9752,10 +9568,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9775,20 +9591,18 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9837,7 +9651,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9846,3003 +9660,18 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ObservationDefinition.xlsx
+++ b/StructureDefinition-profile-ObservationDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8648741-06:00</t>
+    <t>2026-02-20T11:59:20.902221-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ObservationDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ObservationDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -448,458 +448,115 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ObservationDefinition.extension:url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.url|0.0.1-snapshot-3}
+    <t>ObservationDefinition.extension:jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.jurisdiction}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.url from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An absolute URL that is used to identify this ObservationDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this ObservationDefinition is (or will be) published. The URL SHOULD include the major version of the ObservationDefinition. For more information see Technical and Business Versions.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.url` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Cross-version extension for ObservationDefinition.jurisdiction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.jurisdiction` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ObservationDefinition.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.version|0.0.1-snapshot-3}
+    <t>ObservationDefinition.extension:derivedFromUri</t>
+  </si>
+  <si>
+    <t>derivedFromUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.derivedFromUri}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the ObservationDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the ObservationDefinition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions are orderable.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.version` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t>Cross-version extension for ObservationDefinition.derivedFromUri from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.derivedFromUri` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.subject}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.versionAlgorithm[x]` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.name|0.0.1-snapshot-3}
+    <t>Cross-version extension for ObservationDefinition.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code that describes the intended kind of subject of Observation instances conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.subject` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:performerType</t>
+  </si>
+  <si>
+    <t>performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.performerType}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the ObservationDefinition. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.name` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.title|0.0.1-snapshot-3}
+    <t>Cross-version extension for ObservationDefinition.performerType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.performerType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.bodySite}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.title` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.status|0.0.1-snapshot-3}
+    <t>Cross-version extension for ObservationDefinition.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The site on the subject's body where the  observation is to be made.</t>
+  </si>
+  <si>
+    <t>Element `ObservationDefinition.bodySite` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:component</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ObservationDefinition.status from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The current state of the ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.status` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:experimental</t>
-  </si>
-  <si>
-    <t>experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.experimental|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.experimental from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A flag to indicate that this ObservationDefinition is authored for testing purposes (or education/evaluation/marketing), and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.experimental` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.date|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.date from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date (and optionally time) when the ObservationDefinition was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ObservationDefinition changes.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.date` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:publisher</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.publisher|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.publisher from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the ObservationDefinition. May also allow for contact.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.publisher` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:contact</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.contact|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.contact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.contact` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.description|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the ObservationDefinition from the consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.description` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:useContext</t>
-  </si>
-  <si>
-    <t>useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.useContext|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.useContext from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate ObservationDefinition instances.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.useContext` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:jurisdiction</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.jurisdiction|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.jurisdiction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.jurisdiction` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.purpose|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explains why this ObservationDefinition is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.purpose` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.copyright|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Copyright statement relating to the ObservationDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.copyright` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.copyrightLabel` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.approvalDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.approvalDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.lastReviewDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.lastReviewDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.effectivePeriod|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the ObservationDefinition content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.effectivePeriod` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:derivedFromUri</t>
-  </si>
-  <si>
-    <t>derivedFromUri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.derivedFromUri|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.derivedFromUri from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.derivedFromUri` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.subject|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A code that describes the intended kind of subject of Observation instances conforming to this ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `CodeableConcept`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Resource)`:0..1).
-Element `ObservationDefinition.subject` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:performerType</t>
-  </si>
-  <si>
-    <t>performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.performerType|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.performerType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.performerType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:bodySite</t>
-  </si>
-  <si>
-    <t>bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.bodySite|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.bodySite from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The site on the subject's body where the  observation is to be made.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.bodySite` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:component</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ObservationDefinition.component from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -915,7 +572,7 @@
     <t>derivedFromCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -935,7 +592,7 @@
     <t>specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -981,6 +638,366 @@
 Element `ObservationDefinition.hasMember` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
+    <t>ObservationDefinition.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-approvalDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `ObservationDefinition.approvalDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-contact}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.
+Element `ObservationDefinition.contact` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyright}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `ObservationDefinition.copyright` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ObservationDefinition.copyrightLabel` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-date}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.date from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.
+Element `ObservationDefinition.date` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-description}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `ObservationDefinition.description` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the artifact content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `ObservationDefinition.effectivePeriod` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-experimental}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this artifact is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.
+Element `ObservationDefinition.experimental` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-lastReviewDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `ObservationDefinition.lastReviewDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-name}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
+Element `ObservationDefinition.name` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:publisher</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-publisher}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.publisher from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The name of the organization or individual responsible for the release and ongoing maintenance of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.
+Element `ObservationDefinition.publisher` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-purpose}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
+Element `ObservationDefinition.purpose` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-status}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The status of this artifact. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
+Element `ObservationDefinition.status` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-title}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `ObservationDefinition.title` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-url}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this artifact when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this artifact is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the artifact is stored on different servers.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.
+Element `ObservationDefinition.url` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:useContext</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-useContext}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.useContext from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate artifact instances.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.
+Element `ObservationDefinition.useContext` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-version}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
+Element `ObservationDefinition.version` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ObservationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ObservationDefinition.versionAlgorithm[x]` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+  </si>
+  <si>
     <t>ObservationDefinition.modifierExtension</t>
   </si>
   <si>
@@ -1322,7 +1339,7 @@
     <t>qualifiedValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue}
 </t>
   </si>
   <si>
@@ -1849,7 +1866,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2898,7 +2915,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -3011,7 +3028,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -3124,7 +3141,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3460,16 +3477,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>76</v>
@@ -3576,7 +3593,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3656,7 +3673,7 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>138</v>
@@ -3689,7 +3706,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3769,7 +3786,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>138</v>
@@ -3802,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3814,16 +3831,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3882,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>138</v>
@@ -3899,13 +3916,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3927,16 +3944,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3995,7 +4012,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>138</v>
@@ -4012,13 +4029,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
@@ -4040,16 +4057,16 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4108,7 +4125,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>138</v>
@@ -4125,13 +4142,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
@@ -4153,16 +4170,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4221,7 +4238,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>138</v>
@@ -4238,13 +4255,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -4254,7 +4271,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4266,16 +4283,16 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4334,7 +4351,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>138</v>
@@ -4351,13 +4368,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -4379,16 +4396,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4447,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -4464,13 +4481,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
@@ -4492,16 +4509,16 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4560,7 +4577,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>138</v>
@@ -4577,13 +4594,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -4605,16 +4622,16 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4673,7 +4690,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>138</v>
@@ -4690,13 +4707,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
@@ -4718,16 +4735,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4786,7 +4803,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4803,13 +4820,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
@@ -4831,16 +4848,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4899,7 +4916,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>138</v>
@@ -4916,13 +4933,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>76</v>
@@ -4944,16 +4961,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5012,7 +5029,7 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>138</v>
@@ -5029,13 +5046,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
@@ -5045,7 +5062,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5057,16 +5074,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5125,7 +5142,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>138</v>
@@ -5142,13 +5159,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
@@ -5158,7 +5175,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5170,16 +5187,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5238,7 +5255,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>138</v>
@@ -5255,13 +5272,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
@@ -5283,16 +5300,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5351,7 +5368,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>138</v>
@@ -5368,20 +5385,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5390,22 +5407,22 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5464,7 +5481,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>138</v>
@@ -5481,13 +5498,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -5497,7 +5514,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5509,16 +5526,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5577,7 +5594,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>138</v>
@@ -5594,13 +5611,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>76</v>
@@ -5610,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5622,16 +5639,16 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5707,13 +5724,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
@@ -5735,16 +5752,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5820,13 +5837,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>76</v>
@@ -5836,7 +5853,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5848,16 +5865,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5933,13 +5950,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
@@ -5949,7 +5966,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5961,7 +5978,7 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>303</v>

--- a/StructureDefinition-profile-ObservationDefinition.xlsx
+++ b/StructureDefinition-profile-ObservationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.902221-06:00</t>
+    <t>2026-02-21T13:36:54.305414-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ObservationDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ObservationDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -454,7 +454,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.jurisdiction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.jurisdiction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -477,7 +477,7 @@
     <t>derivedFromUri</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.derivedFromUri}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.derivedFromUri|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.subject}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.subject|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>performerType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.performerType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.performerType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.bodySite}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>component</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -564,438 +564,6 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:derivedFromCanonical</t>
-  </si>
-  <si>
-    <t>derivedFromCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.derivedFromCanonical from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ObservationDefinition.derivedFromCanonical` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:specimen</t>
-  </si>
-  <si>
-    <t>specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.specimen from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.specimen` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.specimen` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:device</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.device from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/DeviceDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.device` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:hasMember</t>
-  </si>
-  <si>
-    <t>hasMember</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.hasMember from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ObservationDefinition,http://hl7.org/fhir/StructureDefinition/Questionnaire in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.hasMember` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ObservationDefinition.hasMember` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-approvalDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
-Element `ObservationDefinition.approvalDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:contact</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-contact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.contact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.
-Element `ObservationDefinition.contact` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyright}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
-Element `ObservationDefinition.copyright` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ObservationDefinition.copyrightLabel` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-date}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.date from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.
-Element `ObservationDefinition.date` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-description}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
-Element `ObservationDefinition.description` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-effectivePeriod}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the artifact content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
-Element `ObservationDefinition.effectivePeriod` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:experimental</t>
-  </si>
-  <si>
-    <t>experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-experimental}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.experimental from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this artifact is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.
-Element `ObservationDefinition.experimental` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-lastReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
-Element `ObservationDefinition.lastReviewDate` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-name}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
-Element `ObservationDefinition.name` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:publisher</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-publisher}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.publisher from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The name of the organization or individual responsible for the release and ongoing maintenance of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.
-Element `ObservationDefinition.publisher` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-purpose}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
-Element `ObservationDefinition.purpose` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-status}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.status from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The status of this artifact. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
-Element `ObservationDefinition.status` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `ObservationDefinition.title` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-url}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.url from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this artifact when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this artifact is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the artifact is stored on different servers.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.
-Element `ObservationDefinition.url` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:useContext</t>
-  </si>
-  <si>
-    <t>useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-useContext}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.useContext from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate artifact instances.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.
-Element `ObservationDefinition.useContext` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-version}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
-Element `ObservationDefinition.version` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ObservationDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ObservationDefinition.versionAlgorithm[x]` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>ObservationDefinition.modifierExtension</t>
@@ -1331,25 +899,6 @@
   </si>
   <si>
     <t>ObservationDefinition.qualifiedInterval.extension</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.qualifiedInterval.extension:qualifiedValue</t>
-  </si>
-  <si>
-    <t>qualifiedValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.qualifiedValue}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ObservationDefinition.qualifiedValue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A set of qualified values associated with a context and a set of conditions -  provides a range for quantitative and ordinal observations and a collection of value sets for qualitative observations.</t>
-  </si>
-  <si>
-    <t>Element `ObservationDefinition.qualifiedValue` has is mapped to FHIR R4 element `ObservationDefinition.qualifiedInterval`, but has no comparisons.</t>
   </si>
   <si>
     <t>ObservationDefinition.qualifiedInterval.modifierExtension</t>
@@ -1847,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1856,9 +1405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1866,7 +1415,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2803,7 +2352,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -3580,13 +3129,11 @@
         <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3599,24 +3146,26 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3664,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3682,7 +3231,7 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3690,16 +3239,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s" s="2">
         <v>183</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3715,21 +3262,23 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3753,13 +3302,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3777,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3789,37 +3338,35 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3828,21 +3375,21 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3866,13 +3413,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3890,40 +3437,38 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3941,20 +3486,18 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -4003,7 +3546,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4015,7 +3558,7 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -4029,14 +3572,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4045,7 +3586,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4057,17 +3598,15 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -4080,7 +3619,7 @@
         <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>76</v>
@@ -4092,13 +3631,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4116,7 +3655,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4128,10 +3667,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4142,14 +3681,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4158,7 +3695,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4170,16 +3707,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4193,7 +3730,7 @@
         <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>76</v>
@@ -4229,19 +3766,19 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -4255,14 +3792,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4283,18 +3818,20 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4318,13 +3855,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4342,25 +3879,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4368,14 +3905,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4396,17 +3931,15 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4455,22 +3988,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4481,14 +4014,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4509,17 +4040,15 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4568,22 +4097,22 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4594,14 +4123,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4622,17 +4149,15 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4681,25 +4206,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4707,23 +4232,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4735,16 +4258,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4794,7 +4317,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4812,7 +4335,7 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4820,46 +4343,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4907,7 +4430,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4925,7 +4448,7 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4933,14 +4456,12 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4961,17 +4482,15 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4996,13 +4515,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -5020,22 +4539,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -5046,14 +4565,12 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5074,17 +4591,15 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5109,13 +4624,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5133,22 +4648,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5159,14 +4674,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5187,17 +4700,15 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5246,22 +4757,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5272,14 +4783,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5300,17 +4809,15 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5359,22 +4866,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5385,45 +4892,41 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5472,7 +4975,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5484,10 +4987,10 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5498,14 +5001,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5526,17 +5027,15 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5585,25 +5084,25 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5614,11 +5113,9 @@
         <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5627,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5639,17 +5136,15 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5686,19 +5181,17 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5724,16 +5217,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5746,24 +5237,26 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5811,7 +5304,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5829,7 +5322,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5837,14 +5330,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5865,17 +5356,15 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5888,7 +5377,7 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -5900,13 +5389,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5924,22 +5413,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5950,14 +5439,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5978,18 +5465,18 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6037,22 +5524,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6063,46 +5550,42 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6126,13 +5609,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6150,25 +5633,25 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6176,14 +5659,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6199,23 +5682,21 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6239,13 +5720,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6263,7 +5744,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6278,29 +5759,29 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6312,21 +5793,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6338,7 +5817,7 @@
         <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>76</v>
@@ -6350,13 +5829,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6374,10 +5853,10 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>87</v>
@@ -6389,21 +5868,21 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6414,7 +5893,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6423,18 +5902,20 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6483,13 +5964,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6498,7 +5979,7 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6509,10 +5990,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6523,7 +6004,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6535,13 +6016,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6556,7 +6037,7 @@
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -6568,13 +6049,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6592,13 +6073,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6607,7 +6088,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6618,10 +6099,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6644,17 +6125,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6667,7 +6146,7 @@
         <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>76</v>
@@ -6703,7 +6182,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6718,7 +6197,7 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6729,10 +6208,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6755,20 +6234,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6792,13 +6267,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6816,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6831,10 +6306,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6842,10 +6317,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6868,13 +6343,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6925,7 +6400,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6940,7 +6415,7 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6951,10 +6426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6977,13 +6452,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7034,7 +6509,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7049,7 +6524,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7060,10 +6535,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7086,13 +6561,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7143,7 +6618,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7155,2540 +6630,15 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>
